--- a/lasso_imp_new.xlsx
+++ b/lasso_imp_new.xlsx
@@ -1,1474 +1,1481 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine Tu\Documents\Jobs\Coding test\practicum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59029E-6AA5-4BAF-8B1D-63E70ECA3336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="11556" yWindow="2700" windowWidth="12720" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
   <si>
-    <t xml:space="preserve">variable_names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:5)A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-32:1)/PC(o-32:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (12:0) (lauric acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-36:2) or PE (o-36:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(42:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(46:4) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cer(d40:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (14:1) (physeteric acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(p-36:2)/PE(o-36:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(52:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(48:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-36:1) or PC (o-36:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (15:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(34:3) C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG(38:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-42:5)/PC(o-42:6) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer(d14:1(4E)/20:0(2OH))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (38:5) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(14:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(48:4) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(18:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(18:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (20:2) (eicosadienoic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(10:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(42:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d36:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(42:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(20:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d30:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(10:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG(34:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPE(18:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(59:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cer(d38:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG(36:4) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d44:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(62:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(59:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(14:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(18:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(p-36:1)/PE(o-36:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d40:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(40:7) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d38:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(60:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-42:5) or PC (o-42:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(60:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(35:2) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(57:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (22:2) (docosadienoic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer (d41:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(42:10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(46:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG(36:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactosylceramide (d18:1/24:1(15Z))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(p-40:4)/PE(o-40:5)A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d40:2) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (20:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA 20:6;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:3) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(36:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d42:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:4) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (40:6) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(42:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(35:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(40:6) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d36:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(62:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(p-38:4)/PE(o-38:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-42:3) or PC (o-42:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(18:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(58:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(40:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(35:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (24:1) (nervonic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (36:5) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(22:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:5) D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (40:8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:4) C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-36:2)/PC(o-36:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(16:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(37:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG(34:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer (d42:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (14:0) (myristic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (13:0) (tridecylic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(42:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (10:0) (capric acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d30:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(18:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:7) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(58:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-40:7) or PE (o-40:8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG(36:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d37:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(37:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d40:2) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(53:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (18:0) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(37:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(62:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d34:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(28:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(31:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d42:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d32:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(22:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(37:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(39:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-38:2) or PC (o-38:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-34:1) or PC (o-34:2) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d32:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cer(d41:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer(d40:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d41:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (20:4) (arachidonic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(35:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (38:5) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(48:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPE (22:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(42:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cer(d36:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d33:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d38:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-38:6) or PE (o-38:7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (18:0) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d40:2) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(18:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-38:3)/PC(o-38:4) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(53:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-34:2)/PC(o-34:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG(36:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-34:2) or PE (o-34:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(48:4) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(57:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(55:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(60:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(58:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer(d34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:5) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(44:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d36:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d40:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (15:0) (pentadecylic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(60:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (24:0) (lignoceric acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-38:4) or PC (o-38:5) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-38:3)/PC(o-38:4) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(p-40:4)/PE(o-40:5)B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d34:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d33:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-36:1)/PC(o-36:2) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d44:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cer(d34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(38:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d42:2) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (11:0) (undecylic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPE (16:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM d41:1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(18:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI 38:5; PI 18:1-20:4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(33:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d41:2) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(50:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d43:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(58:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d42:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d42:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(38:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (14:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer(d42:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-36:1)/PC(o-36:2) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (36:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(15:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d41:2) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (22:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(40:7) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(o-34:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-36:5)/PC(o-36:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM d42:1; SM d23:1/19:0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (8:0) (caprylic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d42:2) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:4) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-36:3) or PC (o-36:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(51:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(58:8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (34:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (40:5) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d32:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(12:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(12:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-38:5)/PC(o-38:6) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(55:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d43:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI 34:2; PI 16:0-18:2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI 38:4; PI 18:0-20:4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d41:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-38:4)/PC(o-38:5) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer(d42:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(37:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(50:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d36:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(20:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d32:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (18:2) (linoleic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (36:5) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d39:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d36:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI 38:6; PI 16:0-22:6;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPE (20:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(35:2) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (20:1) (eicosenoic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (20:3) (eicosatrienoic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(60:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d39:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-36:4)/PC(o-36:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d36:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (38:4) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-38:4) or PC (o-38:5) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS 40:6; PS 18:0-22:6;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d43:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(22:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (20:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d32:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d34:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(34:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (20:3) (homo-gamma-linolenic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d40:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (22:6) (docosahexaenoic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-40:1) or PC (o-40:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(40:5) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(p-36:4)/PE(o-36:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(55:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (36:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (40:7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d43:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-38:6)/PC(o-38:7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI 36:4; PI 16:0-20:4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-32:0) or PC (o-32:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (36:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:4) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d41:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d42:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(39:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d39:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (20:5) (eicosapentaenoic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS 38:4; PS 18:0-20:4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM d42:2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-40:6)/PC(o-40:7) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(53:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(34:3) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(44:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (18:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(18:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG(34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d43:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (32:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-40:4) or PE (o-40:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(18:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM d44:3;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-34:1) or PC (o-34:2) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-36:1) or PE (o-36:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cer(d42:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(22:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(33:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(36:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (18:3) (linolenic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer (d38:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:5) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d33:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d38:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d42:2) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(14:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-42:4)/PC(o-42:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (34:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPE(18:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(40:8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d40:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d44:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG 54:6; TAG 16:0-16:0-22:6;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(49:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(58:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE 38:5; PE 16:0-22:5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-32:0) or PC (o-32:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-34:1)/PC(o-34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-40:3)/PC(o-40:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-44:4)/PC(o-44:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (20:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (33:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:4) C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:4) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-36:4) or PC (o-36:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-34:1) or PE (o-34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(31:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(33:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(p-34:1)/PE(o-34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(49:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d42:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (38:4) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (38:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC(16:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-40:5)/PC(o-40:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-40:6)/PC(o-40:7) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPE (18:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (38:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-36:5) or PE (o-36:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d39:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(20:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC 20:4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (36:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG(34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:6) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (35:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (37:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-40:6) or PE (o-40:7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(32:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d32:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(48:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (16:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-44:4) or PC (o-44:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE 40:5e; PE 18:1e/22:4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d40:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d40:2) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE(16:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC 18:0e; PC 16:0e/2:0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(32:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-40:4)/PC(o-40:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d38:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(46:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(58:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer (d42:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE 38:5; PE 18:1-20:4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(48:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(50:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(52:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:7) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d36:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (18:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (33:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-40:4) or PC (o-40:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(20:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(38:6) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG 46:2; TAG 12:0-16:1-18:1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(50:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:5) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (18:1) (oleic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (35:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-38:3) or PE (o-38:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-38:5) or PE (o-38:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d36:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(18:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(20:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC 34:2e;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(p-38:5)/PC(o-38:6) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d38:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(58:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC (16:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (32:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE 38:5e; PE 16:1e/22:4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d32:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(20:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(50:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA (16:1) (palmitoleic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (36:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (36:4) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (40:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d42:2) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cer(d42:2) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(16:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(17:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(20:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE(p-38:5)/PE(o-38:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d36:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d39:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d40:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:7) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlcCer (d40:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (34:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-34:2) or PC (o-34:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(22:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:5) C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(o-32:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (32:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-42:4) or PC (o-42:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC 38:4e; PC 16:0e/22:4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-36:4) or PE (o-36:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d40:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC 34:1e;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(51:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (36:3) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (37:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-34:0) or PC (o-34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-40:3) or PC (o-40:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-40:5) or PE (o-40:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cholesterol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(16:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(30:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(32:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(34:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(34:3) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d42:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(49:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(51:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(51:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (35:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (38:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (o-32:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-38:3) or PC (o-38:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-38:5) or PC (o-38:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (36:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d42:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d42:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(36:3) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(40:5) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM d42:1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM(d38:0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG 52:5; TAG 16:1-18:2-18:2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(51:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(52:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(52:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(53:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:5) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:5) C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:8) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramide (d40:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (34:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (36:4) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (38:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (38:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (40:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (40:5) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (40:6) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC (p-36:3) or PC (o-36:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (38:4) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE (p-38:4) or PE (o-38:5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d38:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM (d41:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC(18:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(34:2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC(40:6)B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG 50:4; TAG 16:1-16:1-18:2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(49:1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(50:3) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(52:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(52:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(53:4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:5) A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:5) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(54:6) B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG(56:7) A</t>
+    <t>variable_names</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>PC(36:5)A</t>
+  </si>
+  <si>
+    <t>PC(p-32:1)/PC(o-32:2)</t>
+  </si>
+  <si>
+    <t>FA (12:0) (lauric acid)</t>
+  </si>
+  <si>
+    <t>PE (p-36:2) or PE (o-36:3)</t>
+  </si>
+  <si>
+    <t>TAG(42:2)</t>
+  </si>
+  <si>
+    <t>TAG(46:4) B</t>
+  </si>
+  <si>
+    <t>Cer(d40:1)</t>
+  </si>
+  <si>
+    <t>FA (14:1) (physeteric acid)</t>
+  </si>
+  <si>
+    <t>TAG(54:3)</t>
+  </si>
+  <si>
+    <t>PE(p-36:2)/PE(o-36:3)</t>
+  </si>
+  <si>
+    <t>TAG(52:2)</t>
+  </si>
+  <si>
+    <t>TAG(48:3)</t>
+  </si>
+  <si>
+    <t>PC (p-36:1) or PC (o-36:2)</t>
+  </si>
+  <si>
+    <t>FA (15:1)</t>
+  </si>
+  <si>
+    <t>PC(34:3) C</t>
+  </si>
+  <si>
+    <t>DG(38:5)</t>
+  </si>
+  <si>
+    <t>PC(p-42:5)/PC(o-42:6) A</t>
+  </si>
+  <si>
+    <t>GlcCer(d14:1(4E)/20:0(2OH))</t>
+  </si>
+  <si>
+    <t>PC (38:5) B</t>
+  </si>
+  <si>
+    <t>AC(14:1)</t>
+  </si>
+  <si>
+    <t>TAG(48:4) A</t>
+  </si>
+  <si>
+    <t>LPC(18:0)</t>
+  </si>
+  <si>
+    <t>CE(18:0)</t>
+  </si>
+  <si>
+    <t>FA (20:2) (eicosadienoic acid)</t>
+  </si>
+  <si>
+    <t>AC(10:1)</t>
+  </si>
+  <si>
+    <t>TAG(42:1)</t>
+  </si>
+  <si>
+    <t>SM (d36:0)</t>
+  </si>
+  <si>
+    <t>PC(42:6)</t>
+  </si>
+  <si>
+    <t>CE(20:4)</t>
+  </si>
+  <si>
+    <t>SM(d30:1)</t>
+  </si>
+  <si>
+    <t>AC(10:0)</t>
+  </si>
+  <si>
+    <t>DG(34:3)</t>
+  </si>
+  <si>
+    <t>LPE(18:0)</t>
+  </si>
+  <si>
+    <t>TAG(59:2)</t>
+  </si>
+  <si>
+    <t>Cer(d38:1)</t>
+  </si>
+  <si>
+    <t>DG(36:4) A</t>
+  </si>
+  <si>
+    <t>SM (d44:2)</t>
+  </si>
+  <si>
+    <t>TAG(62:3)</t>
+  </si>
+  <si>
+    <t>PC(38:2)</t>
+  </si>
+  <si>
+    <t>TAG(59:3)</t>
+  </si>
+  <si>
+    <t>AC(14:2)</t>
+  </si>
+  <si>
+    <t>CE(18:1)</t>
+  </si>
+  <si>
+    <t>PE(p-36:1)/PE(o-36:2)</t>
+  </si>
+  <si>
+    <t>Ceramide (d40:2)</t>
+  </si>
+  <si>
+    <t>PC(40:7) A</t>
+  </si>
+  <si>
+    <t>SM (d38:1)</t>
+  </si>
+  <si>
+    <t>TAG(60:2)</t>
+  </si>
+  <si>
+    <t>PC (p-42:5) or PC (o-42:6)</t>
+  </si>
+  <si>
+    <t>TAG(60:6)</t>
+  </si>
+  <si>
+    <t>PC(35:2) A</t>
+  </si>
+  <si>
+    <t>TAG(57:1)</t>
+  </si>
+  <si>
+    <t>FA (22:2) (docosadienoic acid)</t>
+  </si>
+  <si>
+    <t>GlcCer (d41:1)</t>
+  </si>
+  <si>
+    <t>PC(42:10)</t>
+  </si>
+  <si>
+    <t>TAG(46:0)</t>
+  </si>
+  <si>
+    <t>DG(36:3)</t>
+  </si>
+  <si>
+    <t>Lactosylceramide (d18:1/24:1(15Z))</t>
+  </si>
+  <si>
+    <t>PE(p-40:4)/PE(o-40:5)A</t>
+  </si>
+  <si>
+    <t>SM(d40:2) B</t>
+  </si>
+  <si>
+    <t>LPC (20:2)</t>
+  </si>
+  <si>
+    <t>FA 20:6;</t>
+  </si>
+  <si>
+    <t>PC(36:3) B</t>
+  </si>
+  <si>
+    <t>PE(36:4)</t>
+  </si>
+  <si>
+    <t>SM(d42:0)</t>
+  </si>
+  <si>
+    <t>PC(38:4) B</t>
+  </si>
+  <si>
+    <t>PC (40:6) A</t>
+  </si>
+  <si>
+    <t>TAG(42:3)</t>
+  </si>
+  <si>
+    <t>PC(35:1)</t>
+  </si>
+  <si>
+    <t>PC(40:6) A</t>
+  </si>
+  <si>
+    <t>SM(d36:0)</t>
+  </si>
+  <si>
+    <t>TAG(62:1)</t>
+  </si>
+  <si>
+    <t>PE(p-38:4)/PE(o-38:5)</t>
+  </si>
+  <si>
+    <t>PC(p-42:3) or PC (o-42:4)</t>
+  </si>
+  <si>
+    <t>CE(18:2)</t>
+  </si>
+  <si>
+    <t>TAG(58:5)</t>
+  </si>
+  <si>
+    <t>PC(40:4)</t>
+  </si>
+  <si>
+    <t>PC(35:3)</t>
+  </si>
+  <si>
+    <t>FA (24:1) (nervonic acid)</t>
+  </si>
+  <si>
+    <t>PC (36:5) A</t>
+  </si>
+  <si>
+    <t>CE(22:2)</t>
+  </si>
+  <si>
+    <t>PC(36:5) D</t>
+  </si>
+  <si>
+    <t>PC (40:8)</t>
+  </si>
+  <si>
+    <t>PC(38:4) C</t>
+  </si>
+  <si>
+    <t>PC(p-36:2)/PC(o-36:3)</t>
+  </si>
+  <si>
+    <t>CE(16:0)</t>
+  </si>
+  <si>
+    <t>PC(37:3)</t>
+  </si>
+  <si>
+    <t>DG(34:0)</t>
+  </si>
+  <si>
+    <t>GlcCer (d42:2)</t>
+  </si>
+  <si>
+    <t>FA (14:0) (myristic acid)</t>
+  </si>
+  <si>
+    <t>FA (13:0) (tridecylic acid)</t>
+  </si>
+  <si>
+    <t>TAG(42:0)</t>
+  </si>
+  <si>
+    <t>FA (10:0) (capric acid)</t>
+  </si>
+  <si>
+    <t>SM (d30:1)</t>
+  </si>
+  <si>
+    <t>CE(18:3)</t>
+  </si>
+  <si>
+    <t>TAG(54:7) A</t>
+  </si>
+  <si>
+    <t>TAG(58:4)</t>
+  </si>
+  <si>
+    <t>PE (p-40:7) or PE (o-40:8)</t>
+  </si>
+  <si>
+    <t>DG(36:1)</t>
+  </si>
+  <si>
+    <t>SM (d37:1)</t>
+  </si>
+  <si>
+    <t>PC(37:5)</t>
+  </si>
+  <si>
+    <t>SM (d40:2) A</t>
+  </si>
+  <si>
+    <t>TAG(53:1)</t>
+  </si>
+  <si>
+    <t>LPC (18:0) A</t>
+  </si>
+  <si>
+    <t>PC(37:6)</t>
+  </si>
+  <si>
+    <t>TAG(62:2)</t>
+  </si>
+  <si>
+    <t>Ceramide (d34:0)</t>
+  </si>
+  <si>
+    <t>PC(28:0)</t>
+  </si>
+  <si>
+    <t>PC(31:1)</t>
+  </si>
+  <si>
+    <t>SM(d42:1)</t>
+  </si>
+  <si>
+    <t>Ceramide (d32:1)</t>
+  </si>
+  <si>
+    <t>CE(22:6)</t>
+  </si>
+  <si>
+    <t>PC(37:2)</t>
+  </si>
+  <si>
+    <t>PC(39:6)</t>
+  </si>
+  <si>
+    <t>PC(p-38:2) or PC (o-38:3)</t>
+  </si>
+  <si>
+    <t>PC (p-34:1) or PC (o-34:2) A</t>
+  </si>
+  <si>
+    <t>PC(36:6)</t>
+  </si>
+  <si>
+    <t>SM(d32:2)</t>
+  </si>
+  <si>
+    <t>Cer(d41:1)</t>
+  </si>
+  <si>
+    <t>GlcCer(d40:1)</t>
+  </si>
+  <si>
+    <t>Ceramide (d41:1)</t>
+  </si>
+  <si>
+    <t>FA (20:4) (arachidonic acid)</t>
+  </si>
+  <si>
+    <t>PC(35:4)</t>
+  </si>
+  <si>
+    <t>PC (38:5) A</t>
+  </si>
+  <si>
+    <t>TAG(48:0)</t>
+  </si>
+  <si>
+    <t>LPE (22:6)</t>
+  </si>
+  <si>
+    <t>PC(42:5)</t>
+  </si>
+  <si>
+    <t>Cer(d36:1)</t>
+  </si>
+  <si>
+    <t>Ceramide (d33:1)</t>
+  </si>
+  <si>
+    <t>SM (d38:0)</t>
+  </si>
+  <si>
+    <t>PE (p-38:6) or PE (o-38:7)</t>
+  </si>
+  <si>
+    <t>LPC (18:0) B</t>
+  </si>
+  <si>
+    <t>SM(d40:2) A</t>
+  </si>
+  <si>
+    <t>AC(18:1)</t>
+  </si>
+  <si>
+    <t>PC(p-38:3)/PC(o-38:4) A</t>
+  </si>
+  <si>
+    <t>TAG(53:0)</t>
+  </si>
+  <si>
+    <t>PC(p-34:2)/PC(o-34:3)</t>
+  </si>
+  <si>
+    <t>DG(36:2)</t>
+  </si>
+  <si>
+    <t>PE (p-34:2) or PE (o-34:3)</t>
+  </si>
+  <si>
+    <t>TAG(48:4) B</t>
+  </si>
+  <si>
+    <t>TAG(57:2)</t>
+  </si>
+  <si>
+    <t>PE (34:2)</t>
+  </si>
+  <si>
+    <t>TAG(55:3)</t>
+  </si>
+  <si>
+    <t>TAG(60:1)</t>
+  </si>
+  <si>
+    <t>TAG(58:3)</t>
+  </si>
+  <si>
+    <t>GlcCer(d34:1)</t>
+  </si>
+  <si>
+    <t>PC(38:5) A</t>
+  </si>
+  <si>
+    <t>TAG(44:1)</t>
+  </si>
+  <si>
+    <t>SM(d36:3)</t>
+  </si>
+  <si>
+    <t>SM (d40:3)</t>
+  </si>
+  <si>
+    <t>PC(38:7)</t>
+  </si>
+  <si>
+    <t>FA (15:0) (pentadecylic acid)</t>
+  </si>
+  <si>
+    <t>TAG(60:4)</t>
+  </si>
+  <si>
+    <t>FA (24:0) (lignoceric acid)</t>
+  </si>
+  <si>
+    <t>PC (p-38:4) or PC (o-38:5) A</t>
+  </si>
+  <si>
+    <t>PC(p-38:3)/PC(o-38:4) B</t>
+  </si>
+  <si>
+    <t>PE(p-40:4)/PE(o-40:5)B</t>
+  </si>
+  <si>
+    <t>SM(d34:0)</t>
+  </si>
+  <si>
+    <t>SM (d33:1)</t>
+  </si>
+  <si>
+    <t>PC(p-36:1)/PC(o-36:2) B</t>
+  </si>
+  <si>
+    <t>Ceramide (d44:1)</t>
+  </si>
+  <si>
+    <t>Cer(d34:1)</t>
+  </si>
+  <si>
+    <t>PE(38:6)</t>
+  </si>
+  <si>
+    <t>Ceramide (d42:2) B</t>
+  </si>
+  <si>
+    <t>FA (11:0) (undecylic acid)</t>
+  </si>
+  <si>
+    <t>LPE (16:0)</t>
+  </si>
+  <si>
+    <t>SM d41:1;</t>
+  </si>
+  <si>
+    <t>LPC(18:3)</t>
+  </si>
+  <si>
+    <t>PI 38:5; PI 18:1-20:4;</t>
+  </si>
+  <si>
+    <t>PC(33:1)</t>
+  </si>
+  <si>
+    <t>SM(d41:2) A</t>
+  </si>
+  <si>
+    <t>TAG(50:4)</t>
+  </si>
+  <si>
+    <t>PC(34:1)</t>
+  </si>
+  <si>
+    <t>SM(d43:2)</t>
+  </si>
+  <si>
+    <t>TAG(58:2)</t>
+  </si>
+  <si>
+    <t>Ceramide (d42:0)</t>
+  </si>
+  <si>
+    <t>SM(d42:2)</t>
+  </si>
+  <si>
+    <t>PE(38:4)</t>
+  </si>
+  <si>
+    <t>LPC (14:0)</t>
+  </si>
+  <si>
+    <t>GlcCer(d42:1)</t>
+  </si>
+  <si>
+    <t>PC(p-36:1)/PC(o-36:2) A</t>
+  </si>
+  <si>
+    <t>PE (36:4)</t>
+  </si>
+  <si>
+    <t>LPC(15:0)</t>
+  </si>
+  <si>
+    <t>SM(d41:2) B</t>
+  </si>
+  <si>
+    <t>LPC (22:5)</t>
+  </si>
+  <si>
+    <t>PC(40:7) B</t>
+  </si>
+  <si>
+    <t>PC(o-34:0)</t>
+  </si>
+  <si>
+    <t>PC(p-36:5)/PC(o-36:6)</t>
+  </si>
+  <si>
+    <t>SM d42:1; SM d23:1/19:0;</t>
+  </si>
+  <si>
+    <t>FA (8:0) (caprylic acid)</t>
+  </si>
+  <si>
+    <t>SM (d42:2) A</t>
+  </si>
+  <si>
+    <t>PC(36:4) B</t>
+  </si>
+  <si>
+    <t>PC(p-36:3) or PC (o-36:4)</t>
+  </si>
+  <si>
+    <t>TAG(51:5)</t>
+  </si>
+  <si>
+    <t>TAG(58:8)</t>
+  </si>
+  <si>
+    <t>PC (34:3)</t>
+  </si>
+  <si>
+    <t>PC (40:5) B</t>
+  </si>
+  <si>
+    <t>SM (d32:2)</t>
+  </si>
+  <si>
+    <t>AC(12:1)</t>
+  </si>
+  <si>
+    <t>AC(12:0)</t>
+  </si>
+  <si>
+    <t>PC(p-38:5)/PC(o-38:6) B</t>
+  </si>
+  <si>
+    <t>TAG(55:1)</t>
+  </si>
+  <si>
+    <t>Ceramide (d43:1)</t>
+  </si>
+  <si>
+    <t>PI 34:2; PI 16:0-18:2;</t>
+  </si>
+  <si>
+    <t>PI 38:4; PI 18:0-20:4;</t>
+  </si>
+  <si>
+    <t>SM (d41:1)</t>
+  </si>
+  <si>
+    <t>PC(p-38:4)/PC(o-38:5) A</t>
+  </si>
+  <si>
+    <t>GlcCer(d42:2)</t>
+  </si>
+  <si>
+    <t>PC(37:4)</t>
+  </si>
+  <si>
+    <t>TAG(50:6)</t>
+  </si>
+  <si>
+    <t>SM (d36:1)</t>
+  </si>
+  <si>
+    <t>LPC(20:0)</t>
+  </si>
+  <si>
+    <t>SM(d32:1)</t>
+  </si>
+  <si>
+    <t>FA (18:2) (linoleic acid)</t>
+  </si>
+  <si>
+    <t>PC (36:5) B</t>
+  </si>
+  <si>
+    <t>Ceramide (d39:1)</t>
+  </si>
+  <si>
+    <t>SM (d36:3)</t>
+  </si>
+  <si>
+    <t>PI 38:6; PI 16:0-22:6;</t>
+  </si>
+  <si>
+    <t>LPE (20:4)</t>
+  </si>
+  <si>
+    <t>PC(35:2) B</t>
+  </si>
+  <si>
+    <t>FA (20:1) (eicosenoic acid)</t>
+  </si>
+  <si>
+    <t>FA (20:3) (eicosatrienoic acid)</t>
+  </si>
+  <si>
+    <t>TAG(54:9)</t>
+  </si>
+  <si>
+    <t>TAG(60:3)</t>
+  </si>
+  <si>
+    <t>SM (d39:2)</t>
+  </si>
+  <si>
+    <t>PC(p-36:4)/PC(o-36:5)</t>
+  </si>
+  <si>
+    <t>SM(d36:1)</t>
+  </si>
+  <si>
+    <t>PC (38:4) A</t>
+  </si>
+  <si>
+    <t>PC (p-38:4) or PC (o-38:5) B</t>
+  </si>
+  <si>
+    <t>PS 40:6; PS 18:0-22:6;</t>
+  </si>
+  <si>
+    <t>SM (d43:1)</t>
+  </si>
+  <si>
+    <t>LPC(22:4)</t>
+  </si>
+  <si>
+    <t>TAG(56:9)</t>
+  </si>
+  <si>
+    <t>LPC (20:1)</t>
+  </si>
+  <si>
+    <t>SM (d32:0)</t>
+  </si>
+  <si>
+    <t>SM (d34:0)</t>
+  </si>
+  <si>
+    <t>PC(34:4)</t>
+  </si>
+  <si>
+    <t>Ceramide (d34:2)</t>
+  </si>
+  <si>
+    <t>FA (20:3) (homo-gamma-linolenic acid)</t>
+  </si>
+  <si>
+    <t>Ceramide (d40:0)</t>
+  </si>
+  <si>
+    <t>FA (22:6) (docosahexaenoic acid)</t>
+  </si>
+  <si>
+    <t>PC (p-40:1) or PC (o-40:2)</t>
+  </si>
+  <si>
+    <t>PC(40:5) B</t>
+  </si>
+  <si>
+    <t>PE(p-36:4)/PE(o-36:5)</t>
+  </si>
+  <si>
+    <t>TAG(55:2)</t>
+  </si>
+  <si>
+    <t>PE (36:2)</t>
+  </si>
+  <si>
+    <t>PC (40:7)</t>
+  </si>
+  <si>
+    <t>SM (d43:2)</t>
+  </si>
+  <si>
+    <t>PC(p-38:6)/PC(o-38:7)</t>
+  </si>
+  <si>
+    <t>TAG(56:3)</t>
+  </si>
+  <si>
+    <t>PI 36:4; PI 16:0-20:4;</t>
+  </si>
+  <si>
+    <t>PC (p-32:0) or PC (o-32:1)</t>
+  </si>
+  <si>
+    <t>PE (36:3)</t>
+  </si>
+  <si>
+    <t>PC(36:4) A</t>
+  </si>
+  <si>
+    <t>SM(d41:1)</t>
+  </si>
+  <si>
+    <t>SM (d42:0)</t>
+  </si>
+  <si>
+    <t>PC(39:4)</t>
+  </si>
+  <si>
+    <t>SM(d39:2)</t>
+  </si>
+  <si>
+    <t>FA (20:5) (eicosapentaenoic acid)</t>
+  </si>
+  <si>
+    <t>PS 38:4; PS 18:0-20:4;</t>
+  </si>
+  <si>
+    <t>PC(38:3)</t>
+  </si>
+  <si>
+    <t>SM d42:2;</t>
+  </si>
+  <si>
+    <t>SM(d34:2)</t>
+  </si>
+  <si>
+    <t>PC(p-40:6)/PC(o-40:7) B</t>
+  </si>
+  <si>
+    <t>TAG(53:2)</t>
+  </si>
+  <si>
+    <t>PC(34:3) B</t>
+  </si>
+  <si>
+    <t>TAG(44:0)</t>
+  </si>
+  <si>
+    <t>LPC (18:2)</t>
+  </si>
+  <si>
+    <t>AC(18:0)</t>
+  </si>
+  <si>
+    <t>DG(34:1)</t>
+  </si>
+  <si>
+    <t>SM(d43:1)</t>
+  </si>
+  <si>
+    <t>PC (32:0)</t>
+  </si>
+  <si>
+    <t>PE (p-40:4) or PE (o-40:5)</t>
+  </si>
+  <si>
+    <t>AC(18:2)</t>
+  </si>
+  <si>
+    <t>SM d44:3;</t>
+  </si>
+  <si>
+    <t>PC (p-34:1) or PC (o-34:2) B</t>
+  </si>
+  <si>
+    <t>SM (d34:1)</t>
+  </si>
+  <si>
+    <t>PE (p-36:1) or PE (o-36:2)</t>
+  </si>
+  <si>
+    <t>Cer(d42:1)</t>
+  </si>
+  <si>
+    <t>LPC(22:5)</t>
+  </si>
+  <si>
+    <t>PC(33:0)</t>
+  </si>
+  <si>
+    <t>PE(36:1)</t>
+  </si>
+  <si>
+    <t>TAG(56:0)</t>
+  </si>
+  <si>
+    <t>FA (18:3) (linolenic acid)</t>
+  </si>
+  <si>
+    <t>GlcCer (d38:1)</t>
+  </si>
+  <si>
+    <t>PC(38:5) B</t>
+  </si>
+  <si>
+    <t>SM(d33:1)</t>
+  </si>
+  <si>
+    <t>Ceramide (d34:1)</t>
+  </si>
+  <si>
+    <t>Ceramide (d38:1)</t>
+  </si>
+  <si>
+    <t>Ceramide (d42:2) A</t>
+  </si>
+  <si>
+    <t>SM (d34:2)</t>
+  </si>
+  <si>
+    <t>LPC(14:0)</t>
+  </si>
+  <si>
+    <t>PC(p-42:4)/PC(o-42:5)</t>
+  </si>
+  <si>
+    <t>PC (34:4)</t>
+  </si>
+  <si>
+    <t>LPE(18:2)</t>
+  </si>
+  <si>
+    <t>PC(36:1)</t>
+  </si>
+  <si>
+    <t>PC(40:8)</t>
+  </si>
+  <si>
+    <t>SM(d40:0)</t>
+  </si>
+  <si>
+    <t>SM(d44:2)</t>
+  </si>
+  <si>
+    <t>TAG 54:6; TAG 16:0-16:0-22:6;</t>
+  </si>
+  <si>
+    <t>TAG(49:3)</t>
+  </si>
+  <si>
+    <t>TAG(56:2)</t>
+  </si>
+  <si>
+    <t>TAG(58:9)</t>
+  </si>
+  <si>
+    <t>PE 38:5; PE 16:0-22:5;</t>
+  </si>
+  <si>
+    <t>PC(p-32:0) or PC (o-32:1)</t>
+  </si>
+  <si>
+    <t>PC(p-34:1)/PC(o-34:2)</t>
+  </si>
+  <si>
+    <t>PC(p-40:3)/PC(o-40:4)</t>
+  </si>
+  <si>
+    <t>PC(p-44:4)/PC(o-44:5)</t>
+  </si>
+  <si>
+    <t>LPC (20:3)</t>
+  </si>
+  <si>
+    <t>PC (33:1)</t>
+  </si>
+  <si>
+    <t>PC(36:4) C</t>
+  </si>
+  <si>
+    <t>PC(38:4) A</t>
+  </si>
+  <si>
+    <t>TAG(54:1)</t>
+  </si>
+  <si>
+    <t>PC (p-36:4) or PC (o-36:5)</t>
+  </si>
+  <si>
+    <t>PE (34:1)</t>
+  </si>
+  <si>
+    <t>PE (p-34:1) or PE (o-34:2)</t>
+  </si>
+  <si>
+    <t>PC(31:0)</t>
+  </si>
+  <si>
+    <t>PC(33:2)</t>
+  </si>
+  <si>
+    <t>PE(p-34:1)/PE(o-34:2)</t>
+  </si>
+  <si>
+    <t>TAG(49:0)</t>
+  </si>
+  <si>
+    <t>Ceramide (d42:1)</t>
+  </si>
+  <si>
+    <t>PE (38:4) B</t>
+  </si>
+  <si>
+    <t>PE (38:6)</t>
+  </si>
+  <si>
+    <t>AC(16:0)</t>
+  </si>
+  <si>
+    <t>PC(p-40:5)/PC(o-40:6)</t>
+  </si>
+  <si>
+    <t>PC(p-40:6)/PC(o-40:7) A</t>
+  </si>
+  <si>
+    <t>LPE (18:2)</t>
+  </si>
+  <si>
+    <t>PE (38:2)</t>
+  </si>
+  <si>
+    <t>PE (p-36:5) or PE (o-36:6)</t>
+  </si>
+  <si>
+    <t>SM (d39:1)</t>
+  </si>
+  <si>
+    <t>CE(20:3)</t>
+  </si>
+  <si>
+    <t>PC(36:2)</t>
+  </si>
+  <si>
+    <t>LPC 20:4;</t>
+  </si>
+  <si>
+    <t>PC (36:2)</t>
+  </si>
+  <si>
+    <t>DG(34:2)</t>
+  </si>
+  <si>
+    <t>PC(38:6) A</t>
+  </si>
+  <si>
+    <t>TAG(56:1)</t>
+  </si>
+  <si>
+    <t>PC (35:4)</t>
+  </si>
+  <si>
+    <t>PC (37:2)</t>
+  </si>
+  <si>
+    <t>PE (p-40:6) or PE (o-40:7)</t>
+  </si>
+  <si>
+    <t>PC(32:0)</t>
+  </si>
+  <si>
+    <t>SM(d32:0)</t>
+  </si>
+  <si>
+    <t>TAG(48:1)</t>
+  </si>
+  <si>
+    <t>LPC (16:1)</t>
+  </si>
+  <si>
+    <t>PC (p-44:4) or PC (o-44:5)</t>
+  </si>
+  <si>
+    <t>PE 40:5e; PE 18:1e/22:4;</t>
+  </si>
+  <si>
+    <t>SM (d40:0)</t>
+  </si>
+  <si>
+    <t>SM (d40:2) B</t>
+  </si>
+  <si>
+    <t>CE(16:1)</t>
+  </si>
+  <si>
+    <t>PC 18:0e; PC 16:0e/2:0;</t>
+  </si>
+  <si>
+    <t>PC(32:2)</t>
+  </si>
+  <si>
+    <t>PC(p-40:4)/PC(o-40:5)</t>
+  </si>
+  <si>
+    <t>SM(d38:2)</t>
+  </si>
+  <si>
+    <t>TAG(46:1)</t>
+  </si>
+  <si>
+    <t>TAG(56:4)</t>
+  </si>
+  <si>
+    <t>TAG(58:1)</t>
+  </si>
+  <si>
+    <t>GlcCer (d42:1)</t>
+  </si>
+  <si>
+    <t>PE 38:5; PE 18:1-20:4;</t>
+  </si>
+  <si>
+    <t>TAG(48:2)</t>
+  </si>
+  <si>
+    <t>TAG(50:1)</t>
+  </si>
+  <si>
+    <t>TAG(52:1)</t>
+  </si>
+  <si>
+    <t>TAG(56:7) B</t>
+  </si>
+  <si>
+    <t>Ceramide (d36:1)</t>
+  </si>
+  <si>
+    <t>LPC (18:1)</t>
+  </si>
+  <si>
+    <t>PC (33:2)</t>
+  </si>
+  <si>
+    <t>PC (p-40:4) or PC (o-40:5)</t>
+  </si>
+  <si>
+    <t>LPC(20:2)</t>
+  </si>
+  <si>
+    <t>PC(38:6) B</t>
+  </si>
+  <si>
+    <t>TAG 46:2; TAG 12:0-16:1-18:1;</t>
+  </si>
+  <si>
+    <t>TAG(50:2)</t>
+  </si>
+  <si>
+    <t>TAG(56:5) A</t>
+  </si>
+  <si>
+    <t>FA (18:1) (oleic acid)</t>
+  </si>
+  <si>
+    <t>PC (35:1)</t>
+  </si>
+  <si>
+    <t>PE (p-38:3) or PE (o-38:4)</t>
+  </si>
+  <si>
+    <t>PE (p-38:5) or PE (o-38:6)</t>
+  </si>
+  <si>
+    <t>SM (d36:2)</t>
+  </si>
+  <si>
+    <t>LPC(18:2)</t>
+  </si>
+  <si>
+    <t>LPC(20:3)</t>
+  </si>
+  <si>
+    <t>PC 34:2e;</t>
+  </si>
+  <si>
+    <t>PC(p-38:5)/PC(o-38:6) A</t>
+  </si>
+  <si>
+    <t>SM(d38:1)</t>
+  </si>
+  <si>
+    <t>TAG(58:6)</t>
+  </si>
+  <si>
+    <t>LPC (16:0)</t>
+  </si>
+  <si>
+    <t>PC (32:1)</t>
+  </si>
+  <si>
+    <t>PE 38:5e; PE 16:1e/22:4;</t>
+  </si>
+  <si>
+    <t>SM (d32:1)</t>
+  </si>
+  <si>
+    <t>LPC(20:4)</t>
+  </si>
+  <si>
+    <t>TAG(50:5)</t>
+  </si>
+  <si>
+    <t>TAG(54:2)</t>
+  </si>
+  <si>
+    <t>FA (16:1) (palmitoleic acid)</t>
+  </si>
+  <si>
+    <t>PC (36:1)</t>
+  </si>
+  <si>
+    <t>PC (36:4) A</t>
+  </si>
+  <si>
+    <t>PE (40:6)</t>
+  </si>
+  <si>
+    <t>SM (d42:2) B</t>
+  </si>
+  <si>
+    <t>Cer(d42:2) A</t>
+  </si>
+  <si>
+    <t>LPC(16:1)</t>
+  </si>
+  <si>
+    <t>LPC(17:1)</t>
+  </si>
+  <si>
+    <t>LPC(20:5)</t>
+  </si>
+  <si>
+    <t>PE(p-38:5)/PE(o-38:6)</t>
+  </si>
+  <si>
+    <t>SM(d34:1)</t>
+  </si>
+  <si>
+    <t>SM(d36:2)</t>
+  </si>
+  <si>
+    <t>SM(d39:1)</t>
+  </si>
+  <si>
+    <t>SM(d40:1)</t>
+  </si>
+  <si>
+    <t>TAG(54:7) B</t>
+  </si>
+  <si>
+    <t>GlcCer (d40:1)</t>
+  </si>
+  <si>
+    <t>PC (34:0)</t>
+  </si>
+  <si>
+    <t>PC (p-34:2) or PC (o-34:3)</t>
+  </si>
+  <si>
+    <t>LPC(22:6)</t>
+  </si>
+  <si>
+    <t>PC(36:5) C</t>
+  </si>
+  <si>
+    <t>PC(o-32:0)</t>
+  </si>
+  <si>
+    <t>PC (32:2)</t>
+  </si>
+  <si>
+    <t>PC (p-42:4) or PC (o-42:5)</t>
+  </si>
+  <si>
+    <t>PC 38:4e; PC 16:0e/22:4;</t>
+  </si>
+  <si>
+    <t>PE (p-36:4) or PE (o-36:5)</t>
+  </si>
+  <si>
+    <t>SM (d40:1)</t>
+  </si>
+  <si>
+    <t>PC 34:1e;</t>
+  </si>
+  <si>
+    <t>TAG(51:4)</t>
+  </si>
+  <si>
+    <t>PC (34:2)</t>
+  </si>
+  <si>
+    <t>PC (36:3) A</t>
+  </si>
+  <si>
+    <t>PC (37:4)</t>
+  </si>
+  <si>
+    <t>PC (p-34:0) or PC (o-34:1)</t>
+  </si>
+  <si>
+    <t>PC (p-40:3) or PC (o-40:4)</t>
+  </si>
+  <si>
+    <t>PE (p-40:5) or PE (o-40:6)</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>LPC(16:0)</t>
+  </si>
+  <si>
+    <t>PC(30:0)</t>
+  </si>
+  <si>
+    <t>PC(32:1)</t>
+  </si>
+  <si>
+    <t>PC(34:0)</t>
+  </si>
+  <si>
+    <t>PC(34:3) A</t>
+  </si>
+  <si>
+    <t>SM(d42:3)</t>
+  </si>
+  <si>
+    <t>TAG(49:2)</t>
+  </si>
+  <si>
+    <t>TAG(51:1)</t>
+  </si>
+  <si>
+    <t>TAG(51:2)</t>
+  </si>
+  <si>
+    <t>TAG(54:4)</t>
+  </si>
+  <si>
+    <t>PC (35:2)</t>
+  </si>
+  <si>
+    <t>PC (38:3)</t>
+  </si>
+  <si>
+    <t>PC (o-32:0)</t>
+  </si>
+  <si>
+    <t>PC (p-38:3) or PC (o-38:4)</t>
+  </si>
+  <si>
+    <t>PC (p-38:5) or PC (o-38:6)</t>
+  </si>
+  <si>
+    <t>PE (36:1)</t>
+  </si>
+  <si>
+    <t>SM (d42:1)</t>
+  </si>
+  <si>
+    <t>SM (d42:3)</t>
+  </si>
+  <si>
+    <t>PC(36:3) A</t>
+  </si>
+  <si>
+    <t>PC(40:5) A</t>
+  </si>
+  <si>
+    <t>SM d42:1;</t>
+  </si>
+  <si>
+    <t>SM(d38:0)</t>
+  </si>
+  <si>
+    <t>TAG 52:5; TAG 16:1-18:2-18:2;</t>
+  </si>
+  <si>
+    <t>TAG(51:3)</t>
+  </si>
+  <si>
+    <t>TAG(52:5)</t>
+  </si>
+  <si>
+    <t>TAG(52:6)</t>
+  </si>
+  <si>
+    <t>TAG(53:3)</t>
+  </si>
+  <si>
+    <t>TAG(54:8)</t>
+  </si>
+  <si>
+    <t>TAG(56:5) B</t>
+  </si>
+  <si>
+    <t>TAG(56:5) C</t>
+  </si>
+  <si>
+    <t>TAG(56:8) A</t>
+  </si>
+  <si>
+    <t>Ceramide (d40:1)</t>
+  </si>
+  <si>
+    <t>PC (34:1)</t>
+  </si>
+  <si>
+    <t>PC (36:4) B</t>
+  </si>
+  <si>
+    <t>PC (38:2)</t>
+  </si>
+  <si>
+    <t>PC (38:6)</t>
+  </si>
+  <si>
+    <t>PC (40:4)</t>
+  </si>
+  <si>
+    <t>PC (40:5) A</t>
+  </si>
+  <si>
+    <t>PC (40:6) B</t>
+  </si>
+  <si>
+    <t>PC (p-36:3) or PC (o-36:4)</t>
+  </si>
+  <si>
+    <t>PE (38:4) A</t>
+  </si>
+  <si>
+    <t>PE (p-38:4) or PE (o-38:5)</t>
+  </si>
+  <si>
+    <t>SM (d38:2)</t>
+  </si>
+  <si>
+    <t>SM (d41:2)</t>
+  </si>
+  <si>
+    <t>LPC(18:1)</t>
+  </si>
+  <si>
+    <t>PC(34:2)</t>
+  </si>
+  <si>
+    <t>PC(40:6)B</t>
+  </si>
+  <si>
+    <t>TAG 50:4; TAG 16:1-16:1-18:2;</t>
+  </si>
+  <si>
+    <t>TAG(49:1)</t>
+  </si>
+  <si>
+    <t>TAG(50:3) A</t>
+  </si>
+  <si>
+    <t>TAG(52:3)</t>
+  </si>
+  <si>
+    <t>TAG(52:4)</t>
+  </si>
+  <si>
+    <t>TAG(53:4)</t>
+  </si>
+  <si>
+    <t>TAG(54:5) A</t>
+  </si>
+  <si>
+    <t>TAG(54:5) B</t>
+  </si>
+  <si>
+    <t>TAG(54:6) B</t>
+  </si>
+  <si>
+    <t>TAG(56:6)</t>
+  </si>
+  <si>
+    <t>TAG(56:7) A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1504,6 +1511,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1785,14 +1801,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B482"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1800,3856 +1821,3856 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>961</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>930</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>892</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>800</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>793</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>726</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>690</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>591</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>586</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>565</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>564</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>556</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>509</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>508</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>501</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>485</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>482</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>445</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>399</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>395</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>390</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>358</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>344</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>342</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>342</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>337</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>322</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>319</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>313</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>312</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>310</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>308</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>298</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>287</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>284</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>274</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>266</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>263</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>259</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>249</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>246</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>240</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>238</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>235</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>233</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>230</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>230</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>229</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>225</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>223</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>221</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>220</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>220</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>213</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>211</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>209</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>209</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>209</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>205</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>204</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>203</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>203</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>199</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>197</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>193</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>189</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>188</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>187</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>187</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>184</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>177</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>175</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>173</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>172</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>171</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>169</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>167</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>165</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>160</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>160</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>153</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>150</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>150</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>149</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>145</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>145</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>143</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>141</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>139</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>137</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>137</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>134</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>134</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>133</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>131</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>130</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>129</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>129</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>128</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>125</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>124</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>123</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>120</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>119</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>117</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>114</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>113</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>113</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>113</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>112</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>112</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>111</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>111</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>107</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>106</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>106</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>104</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>102</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>102</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>100</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>100</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>100</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>99</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>98</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>95</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>95</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>93</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>91</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>130</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>91</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>90</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>89</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>133</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>89</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>134</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>88</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>135</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>88</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>88</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>87</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>85</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>84</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>84</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>141</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>84</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>142</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>83</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>143</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>82</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>144</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>82</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>81</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>146</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>80</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>147</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>80</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>80</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>149</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>78</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>150</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>77</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>77</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>152</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>76</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>153</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>75</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>154</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>74</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>155</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>73</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>156</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>73</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>157</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>73</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>73</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>159</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>72</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>160</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>72</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>161</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>70</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>162</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>70</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>69</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>164</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>66</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>165</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>66</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>166</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>66</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>167</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>65</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>168</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>64</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>169</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>63</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>170</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>63</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>171</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>63</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>172</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>63</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>173</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>62</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>174</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>62</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>175</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>62</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>176</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>61</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>61</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>178</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>60</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>179</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>59</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>180</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>59</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>181</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>59</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>182</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>58</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>183</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>58</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>184</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>57</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>185</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>56</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>186</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>56</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>187</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>56</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>188</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>56</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>189</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>55</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>190</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>54</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>191</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>54</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>54</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>193</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>54</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>194</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>54</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>195</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>54</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>196</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>53</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>197</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>53</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>198</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>53</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>199</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>53</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>200</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>52</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>201</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>52</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>202</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>51</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>203</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>50</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>204</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>50</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>205</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>50</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>206</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>49</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>207</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>49</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>208</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>48</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>209</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>48</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>210</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>48</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>211</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>47</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>212</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>47</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>213</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>47</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>214</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>46</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>215</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>46</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>216</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>45</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>217</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>45</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>218</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>44</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>219</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>43</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>220</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>43</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>221</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>42</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>222</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>42</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>223</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>42</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>224</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>42</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>225</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>41</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>226</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>41</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>227</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>41</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>228</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>40</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>229</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>40</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>230</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>40</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>231</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>40</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>232</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>40</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>233</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>40</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>234</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>39</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>235</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>39</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>236</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>39</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>237</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>39</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>238</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>38</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>239</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>38</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>240</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>37</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>241</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>37</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>242</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>37</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>243</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>37</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>244</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>37</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>245</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>37</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>246</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>35</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>247</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>34</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>248</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>34</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>249</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>34</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>250</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>34</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>251</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>33</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>252</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>32</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>253</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>32</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>254</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>32</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>255</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>32</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>256</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>31</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>257</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>31</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>258</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>31</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>259</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>30</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>260</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>30</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>261</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>30</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>262</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>30</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>263</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>30</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>264</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>29</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>265</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>28</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>266</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>27</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>267</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>27</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>268</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>26</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>269</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>26</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>270</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>26</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>271</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>26</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>272</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>25</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>273</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>25</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>274</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>25</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>275</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>25</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>276</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>24</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>277</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>23</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>278</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>22</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>279</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>22</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>280</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>22</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>281</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>22</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>282</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>22</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>283</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>22</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>284</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>21</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>285</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>21</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>286</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>21</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>287</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>20</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>288</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>19</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>289</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>19</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>290</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>19</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>291</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>19</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>292</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>19</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>293</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>19</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>294</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>18</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>295</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>18</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>296</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>18</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>297</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>18</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>298</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>18</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>299</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>18</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>300</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>18</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>301</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>18</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>302</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>18</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>303</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>18</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>304</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>17</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>305</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>17</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>306</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>17</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>307</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>17</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>308</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>17</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>309</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>16</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>310</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>16</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>311</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>16</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>312</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>16</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>313</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>16</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>314</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>15</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>315</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>15</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>316</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>15</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>317</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>15</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>318</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>15</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>319</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>15</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>320</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>15</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>321</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>14</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>322</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>14</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>323</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>14</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>324</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>14</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>325</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>14</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>326</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>14</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>327</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>13</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>328</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>13</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>329</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>13</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>330</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>13</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>331</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>13</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>332</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>13</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>333</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>12</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>334</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>12</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>335</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>12</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>336</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>12</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>337</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>12</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>338</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>11</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>339</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>11</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>340</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>11</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>341</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>11</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>342</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>11</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>343</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>11</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>344</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>10</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>345</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>10</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>346</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>10</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>347</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>10</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>348</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>10</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>349</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>10</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>350</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>10</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>351</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>10</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>352</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>10</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>353</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>10</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>354</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>10</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>355</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>10</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>356</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>10</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>357</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>9</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>358</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>9</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>359</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>9</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>360</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>9</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>361</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>9</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>362</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>9</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>363</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>8</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>364</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>8</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>365</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>8</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>366</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>8</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>367</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>8</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>368</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>8</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>369</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>8</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>370</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>8</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>371</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>8</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>372</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>7</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>373</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>7</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>374</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>7</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>375</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>7</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>376</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>7</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>377</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>7</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>378</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>7</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>379</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>7</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>380</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>7</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>381</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>7</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>382</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>7</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>383</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>6</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>384</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>6</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>385</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>6</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>386</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>6</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>387</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>6</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>388</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>6</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>389</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>6</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>390</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>5</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>391</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>5</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>392</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>5</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>393</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>5</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>394</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>5</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>395</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>5</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>396</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>5</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>397</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>5</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>398</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>5</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>399</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>5</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>400</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>5</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>401</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>5</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>402</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>5</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>403</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>5</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>404</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>5</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>405</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>4</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>406</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>4</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>407</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>4</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>408</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>4</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>409</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>4</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>410</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>4</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>411</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>3</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>412</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>3</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>413</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>3</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>414</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>3</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>415</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>3</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>416</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>3</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>417</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>3</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>418</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>2</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>419</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>2</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>420</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>2</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>421</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>2</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>422</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>2</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>423</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>2</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>424</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>2</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>425</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>2</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>426</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>2</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>427</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>2</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>428</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>2</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>429</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>2</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>430</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>2</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>431</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>2</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>432</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>2</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>433</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>2</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>434</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>2</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>435</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>1</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>436</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>1</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>437</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>1</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>438</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>1</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>439</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>1</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>440</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>1</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>441</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>1</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>442</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>1</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>443</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>1</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>444</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>1</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>445</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>1</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>446</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>1</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>447</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>1</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>448</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>1</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>449</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>1</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>450</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>1</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>451</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>1</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>452</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>1</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>453</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>1</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>454</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>1</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>455</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>1</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>456</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>0</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>457</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>0</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>458</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>0</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>459</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>0</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>460</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>0</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>461</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>0</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>462</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>0</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>463</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>0</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>464</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>0</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>465</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>0</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>466</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>0</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>467</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>0</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>468</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>0</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>469</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>0</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>470</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>0</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>471</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>0</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>472</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>0</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>473</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>0</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>474</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>0</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>475</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>0</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>476</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>0</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>477</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>0</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>478</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>0</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>479</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>0</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>480</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>0</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>481</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>0</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>482</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>